--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.39850000000001</v>
+        <v>-12.4866</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1703</v>
+        <v>-22.1279</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.55159999999999</v>
+        <v>16.34229999999999</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.70950000000003</v>
+        <v>18.32170000000002</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8278</v>
+        <v>-21.8088</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.16469999999998</v>
+        <v>-20.12289999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.57399999999997</v>
+        <v>-20.42659999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,29 +848,29 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.42729999999999</v>
+        <v>16.6845</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.0349</v>
+        <v>-21.92219999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.7261</v>
+        <v>-12.7445</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.84490000000001</v>
+        <v>16.90300000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.02959999999997</v>
+        <v>-21.10709999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.1746</v>
+        <v>-12.6782</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.86999999999998</v>
+        <v>-20.98529999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2557</v>
+        <v>-13.13710000000001</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.6029</v>
+        <v>-12.84790000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.6827</v>
+        <v>-11.6778</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.2662</v>
+        <v>16.2838</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9233</v>
+        <v>-11.8844</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.4087</v>
+        <v>-11.5092</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.0941</v>
+        <v>-21.98499999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.71130000000002</v>
+        <v>16.72670000000002</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.6171</v>
+        <v>-13.76489999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.53349999999999</v>
+        <v>-12.3343</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,19 +1397,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.05370000000001</v>
+        <v>-22.0871</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.82839999999999</v>
+        <v>-13.057</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.81209999999998</v>
+        <v>16.47539999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.05019999999999</v>
+        <v>-22.2221</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.588</v>
+        <v>16.5998</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.47950000000002</v>
+        <v>18.24560000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57189999999999</v>
+        <v>-21.555</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.66590000000003</v>
+        <v>18.40880000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.9918</v>
+        <v>-13.0158</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.41230000000002</v>
+        <v>-20.33150000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9229</v>
+        <v>-21.8599</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.61819999999999</v>
+        <v>16.4747</v>
       </c>
     </row>
     <row r="87">
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-9.944200000000002</v>
+        <v>-10.0055</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.3376</v>
+        <v>-11.79510000000001</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.50520000000001</v>
+        <v>-21.4996</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.2545</v>
+        <v>-10.38169999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.93279999999998</v>
+        <v>-20.86199999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.83570000000001</v>
+        <v>15.9275</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.335</v>
+        <v>16.36620000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.72869999999999</v>
+        <v>16.78009999999999</v>
       </c>
     </row>
   </sheetData>
